--- a/Jogos_do_Dia/2023-02-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -823,13 +823,13 @@
         <v>77</v>
       </c>
       <c r="F2">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I2">
         <v>1.08</v>
@@ -1031,13 +1031,13 @@
         <v>79</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G4">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -1135,13 +1135,13 @@
         <v>80</v>
       </c>
       <c r="F5">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="H5">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="I5">
         <v>1.1</v>
@@ -1150,16 +1150,16 @@
         <v>6.5</v>
       </c>
       <c r="K5">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N5">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="O5">
         <v>1.52</v>
@@ -1198,28 +1198,28 @@
         <v>2.7</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1239,52 +1239,52 @@
         <v>81</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V6">
         <v>1.18</v>
@@ -1551,13 +1551,13 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="G9">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H9">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="I9">
         <v>1.08</v>
@@ -1572,10 +1572,10 @@
         <v>2.7</v>
       </c>
       <c r="M9">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="N9">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1655,13 +1655,13 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="H10">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="I10">
         <v>1.1</v>
@@ -1670,16 +1670,16 @@
         <v>7.5</v>
       </c>
       <c r="K10">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="L10">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N10">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O10">
         <v>1.49</v>
@@ -1718,28 +1718,28 @@
         <v>3.12</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1759,52 +1759,52 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V11">
         <v>0.91</v>
@@ -1970,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H13">
         <v>1.67</v>
@@ -1988,10 +1988,10 @@
         <v>2.95</v>
       </c>
       <c r="M13">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="N13">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O13">
         <v>1.44</v>
@@ -2071,13 +2071,13 @@
         <v>89</v>
       </c>
       <c r="F14">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G14">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H14">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2092,10 +2092,10 @@
         <v>3.05</v>
       </c>
       <c r="M14">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N14">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="O14">
         <v>1.42</v>
@@ -2134,28 +2134,28 @@
         <v>3.55</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2175,13 +2175,13 @@
         <v>90</v>
       </c>
       <c r="F15">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H15">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="I15">
         <v>1.07</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="N15">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="O15">
         <v>1.43</v>
@@ -2238,28 +2238,28 @@
         <v>2.95</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2279,13 +2279,13 @@
         <v>91</v>
       </c>
       <c r="F16">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="H16">
-        <v>3.5</v>
+        <v>3.31</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -2342,28 +2342,28 @@
         <v>3.01</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2383,13 +2383,13 @@
         <v>92</v>
       </c>
       <c r="F17">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="G17">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="H17">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="I17">
         <v>1.08</v>
@@ -2446,28 +2446,28 @@
         <v>3.07</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2487,13 +2487,13 @@
         <v>93</v>
       </c>
       <c r="F18">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="G18">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H18">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>1.02</v>
@@ -2508,10 +2508,10 @@
         <v>3.2</v>
       </c>
       <c r="M18">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="N18">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
         <v>1.4</v>
@@ -2591,13 +2591,13 @@
         <v>94</v>
       </c>
       <c r="F19">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H19">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -2612,10 +2612,10 @@
         <v>2.98</v>
       </c>
       <c r="M19">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N19">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
         <v>1.44</v>
@@ -2695,13 +2695,13 @@
         <v>95</v>
       </c>
       <c r="F20">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I20">
         <v>1.02</v>
@@ -2716,10 +2716,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O20">
         <v>1.42</v>
@@ -2799,13 +2799,13 @@
         <v>96</v>
       </c>
       <c r="F21">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H21">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I21">
         <v>1.04</v>
@@ -2823,7 +2823,7 @@
         <v>1.75</v>
       </c>
       <c r="N21">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
         <v>1.34</v>
@@ -2903,13 +2903,13 @@
         <v>97</v>
       </c>
       <c r="F22">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="G22">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="H22">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="I22">
         <v>1.1</v>
@@ -2924,10 +2924,10 @@
         <v>2.62</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O22">
         <v>1.53</v>
@@ -3007,13 +3007,13 @@
         <v>98</v>
       </c>
       <c r="F23">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G23">
-        <v>3.15</v>
+        <v>2.89</v>
       </c>
       <c r="H23">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I23">
         <v>1.05</v>
@@ -3028,10 +3028,10 @@
         <v>2.9</v>
       </c>
       <c r="M23">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="N23">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="O23">
         <v>1.48</v>
@@ -3111,13 +3111,13 @@
         <v>99</v>
       </c>
       <c r="F24">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G24">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="H24">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1.07</v>
@@ -3135,7 +3135,7 @@
         <v>2.3</v>
       </c>
       <c r="N24">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O24">
         <v>1.47</v>
@@ -3215,13 +3215,13 @@
         <v>100</v>
       </c>
       <c r="F25">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G25">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H25">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I25">
         <v>1.03</v>
@@ -3236,10 +3236,10 @@
         <v>3.1</v>
       </c>
       <c r="M25">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="N25">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O25">
         <v>1.43</v>
@@ -3319,13 +3319,13 @@
         <v>101</v>
       </c>
       <c r="F26">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="G26">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="H26">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="I26">
         <v>1.08</v>
@@ -3340,10 +3340,10 @@
         <v>2.9</v>
       </c>
       <c r="M26">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O26">
         <v>1.45</v>
@@ -3423,13 +3423,13 @@
         <v>102</v>
       </c>
       <c r="F27">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="G27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H27">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I27">
         <v>1.07</v>
@@ -3444,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="N27">
         <v>1.65</v>
@@ -3527,7 +3527,7 @@
         <v>103</v>
       </c>
       <c r="F28">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G28">
         <v>3.5</v>
@@ -3548,10 +3548,10 @@
         <v>2.95</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N28">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -3631,13 +3631,13 @@
         <v>104</v>
       </c>
       <c r="F29">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G29">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H29">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1.09</v>
@@ -3652,7 +3652,7 @@
         <v>2.8</v>
       </c>
       <c r="M29">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="N29">
         <v>1.61</v>
@@ -3744,16 +3744,16 @@
         <v>6.12</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
         <v>1.85</v>
@@ -3762,25 +3762,25 @@
         <v>1.87</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V30">
         <v>3</v>
@@ -3848,16 +3848,16 @@
         <v>3.62</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="M31">
         <v>1.86</v>
@@ -3866,25 +3866,25 @@
         <v>1.86</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
         <v>0</v>

--- a/Jogos_do_Dia/2023-02-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -823,13 +823,13 @@
         <v>77</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H2">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I2">
         <v>1.08</v>
@@ -844,10 +844,10 @@
         <v>2.75</v>
       </c>
       <c r="M2">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="N2">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O2">
         <v>1.44</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X2">
         <v>1.18</v>
@@ -975,7 +975,7 @@
         <v>1.25</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>79</v>
       </c>
       <c r="F4">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -1052,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N4">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="O4">
         <v>1.3</v>
@@ -1079,7 +1079,7 @@
         <v>1.84</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>80</v>
       </c>
       <c r="F5">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="G5">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H5">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1.1</v>
@@ -1150,10 +1150,10 @@
         <v>6.5</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L5">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M5">
         <v>2.45</v>
@@ -1239,13 +1239,13 @@
         <v>81</v>
       </c>
       <c r="F6">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="I6">
         <v>1.06</v>
@@ -1260,10 +1260,10 @@
         <v>2.7</v>
       </c>
       <c r="M6">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="O6">
         <v>1.49</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1343,52 +1343,52 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V7">
         <v>0.5600000000000001</v>
@@ -1447,52 +1447,52 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V8">
         <v>1.18</v>
@@ -1510,28 +1510,28 @@
         <v>2.77</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1551,13 +1551,13 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="H9">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="I9">
         <v>1.08</v>
@@ -1572,10 +1572,10 @@
         <v>2.7</v>
       </c>
       <c r="M9">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="N9">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1655,13 +1655,13 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="G10">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H10">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="I10">
         <v>1.1</v>
@@ -1670,10 +1670,10 @@
         <v>7.5</v>
       </c>
       <c r="K10">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M10">
         <v>2.45</v>
@@ -1759,13 +1759,13 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>2.75</v>
+        <v>2.28</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1780,10 +1780,10 @@
         <v>2.67</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O11">
         <v>1.49</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1863,52 +1863,52 @@
         <v>87</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.69</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12">
         <v>2.25</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>88</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H13">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I13">
         <v>1.07</v>
@@ -1988,10 +1988,10 @@
         <v>2.95</v>
       </c>
       <c r="M13">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="N13">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
         <v>1.44</v>
@@ -2071,13 +2071,13 @@
         <v>89</v>
       </c>
       <c r="F14">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="G14">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2092,10 +2092,10 @@
         <v>3.05</v>
       </c>
       <c r="M14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
         <v>1.42</v>
@@ -2175,10 +2175,10 @@
         <v>90</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
         <v>1.85</v>
@@ -2196,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="N15">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="O15">
         <v>1.43</v>
@@ -2279,13 +2279,13 @@
         <v>91</v>
       </c>
       <c r="F16">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="G16">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -2300,10 +2300,10 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O16">
         <v>1.49</v>
@@ -2383,13 +2383,13 @@
         <v>92</v>
       </c>
       <c r="F17">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="G17">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1.08</v>
@@ -2404,10 +2404,10 @@
         <v>2.8</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O17">
         <v>1.49</v>
@@ -2487,13 +2487,13 @@
         <v>93</v>
       </c>
       <c r="F18">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="G18">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>1.02</v>
@@ -2508,10 +2508,10 @@
         <v>3.2</v>
       </c>
       <c r="M18">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
         <v>1.4</v>
@@ -2591,13 +2591,13 @@
         <v>94</v>
       </c>
       <c r="F19">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19">
         <v>1.03</v>
@@ -2695,13 +2695,13 @@
         <v>95</v>
       </c>
       <c r="F20">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H20">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="I20">
         <v>1.02</v>
@@ -2716,10 +2716,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
         <v>1.42</v>
@@ -2799,13 +2799,13 @@
         <v>96</v>
       </c>
       <c r="F21">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G21">
         <v>3.6</v>
       </c>
       <c r="H21">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I21">
         <v>1.04</v>
@@ -2823,7 +2823,7 @@
         <v>1.75</v>
       </c>
       <c r="N21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O21">
         <v>1.34</v>
@@ -2903,13 +2903,13 @@
         <v>97</v>
       </c>
       <c r="F22">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="G22">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="H22">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="I22">
         <v>1.1</v>
@@ -3007,13 +3007,13 @@
         <v>98</v>
       </c>
       <c r="F23">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="H23">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="I23">
         <v>1.05</v>
@@ -3028,7 +3028,7 @@
         <v>2.9</v>
       </c>
       <c r="M23">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
         <v>1.61</v>
@@ -3111,13 +3111,13 @@
         <v>99</v>
       </c>
       <c r="F24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G24">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="I24">
         <v>1.07</v>
@@ -3215,13 +3215,13 @@
         <v>100</v>
       </c>
       <c r="F25">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G25">
         <v>3.75</v>
       </c>
       <c r="H25">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>1.03</v>
@@ -3236,10 +3236,10 @@
         <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="N25">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O25">
         <v>1.43</v>
@@ -3319,13 +3319,13 @@
         <v>101</v>
       </c>
       <c r="F26">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="G26">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="H26">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1.08</v>
@@ -3340,7 +3340,7 @@
         <v>2.9</v>
       </c>
       <c r="M26">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N26">
         <v>1.61</v>
@@ -3423,10 +3423,10 @@
         <v>102</v>
       </c>
       <c r="F27">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
         <v>2.9</v>
@@ -3444,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O27">
         <v>1.47</v>
@@ -3527,10 +3527,10 @@
         <v>103</v>
       </c>
       <c r="F28">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H28">
         <v>4.75</v>
@@ -3548,10 +3548,10 @@
         <v>2.95</v>
       </c>
       <c r="M28">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -3631,13 +3631,13 @@
         <v>104</v>
       </c>
       <c r="F29">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="G29">
+        <v>3.1</v>
+      </c>
+      <c r="H29">
         <v>3.2</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
       </c>
       <c r="I29">
         <v>1.09</v>
@@ -3652,10 +3652,10 @@
         <v>2.8</v>
       </c>
       <c r="M29">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="O29">
         <v>1.5</v>
@@ -3798,28 +3798,28 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3902,28 +3902,28 @@
         <v>1.32</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
